--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/AC/20/seed2/result_data_RandomForest.xlsx
@@ -468,7 +468,7 @@
         <v>10.48</v>
       </c>
       <c r="C2" t="n">
-        <v>-12.6141</v>
+        <v>-12.4764</v>
       </c>
       <c r="D2" t="n">
         <v>-7.6</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-22.06519999999999</v>
+        <v>-22.0452</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.8193</v>
+        <v>-21.7468</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.59519999999999</v>
+        <v>-21.75709999999999</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -740,7 +740,7 @@
         <v>4.35</v>
       </c>
       <c r="C18" t="n">
-        <v>-11.8891</v>
+        <v>-11.7081</v>
       </c>
       <c r="D18" t="n">
         <v>-6.27</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.37859999999997</v>
+        <v>-20.15689999999998</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.46649999999997</v>
+        <v>-20.27779999999997</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -842,7 +842,7 @@
         <v>7.41</v>
       </c>
       <c r="C24" t="n">
-        <v>-13.24209999999999</v>
+        <v>-13.23569999999999</v>
       </c>
       <c r="D24" t="n">
         <v>-7.7</v>
@@ -853,13 +853,13 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-21.65979999999999</v>
+        <v>-21.66249999999999</v>
       </c>
       <c r="B25" t="n">
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-13.1692</v>
+        <v>-12.7937</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -870,7 +870,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.12869999999997</v>
+        <v>-21.17429999999997</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -893,7 +893,7 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-12.5849</v>
+        <v>-12.6068</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.02679999999998</v>
+        <v>-20.86649999999999</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.98029999999999</v>
+        <v>-12.9026</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.53600000000001</v>
+        <v>-13.3699</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1097,7 +1097,7 @@
         <v>9.35</v>
       </c>
       <c r="C39" t="n">
-        <v>-12.2603</v>
+        <v>-12.4937</v>
       </c>
       <c r="D39" t="n">
         <v>-8.93</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-20.26019999999999</v>
+        <v>-19.96549999999999</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1148,7 +1148,7 @@
         <v>9.16</v>
       </c>
       <c r="C42" t="n">
-        <v>-12.71709999999999</v>
+        <v>-12.9179</v>
       </c>
       <c r="D42" t="n">
         <v>-7.75</v>
@@ -1250,7 +1250,7 @@
         <v>5.63</v>
       </c>
       <c r="C48" t="n">
-        <v>-11.67189999999999</v>
+        <v>-11.3808</v>
       </c>
       <c r="D48" t="n">
         <v>-6.88</v>
@@ -1301,7 +1301,7 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.5184</v>
+        <v>-11.4435</v>
       </c>
       <c r="D51" t="n">
         <v>-7.18</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.2797</v>
+        <v>-11.26169999999999</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.8823</v>
+        <v>-21.7958</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.95289999999999</v>
+        <v>-13.7358</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-12.67289999999999</v>
+        <v>-12.28779999999999</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1397,13 +1397,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.834</v>
+        <v>-21.8965</v>
       </c>
       <c r="B57" t="n">
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-12.60049999999999</v>
+        <v>-12.57159999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.57070000000001</v>
+        <v>-22.3753</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1454,7 +1454,7 @@
         <v>3.07</v>
       </c>
       <c r="C60" t="n">
-        <v>-13.22679999999999</v>
+        <v>-13.2664</v>
       </c>
       <c r="D60" t="n">
         <v>-9.630000000000001</v>
@@ -1533,7 +1533,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.86249999999997</v>
+        <v>-21.87939999999998</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.6082</v>
+        <v>-21.5981</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.54880000000001</v>
+        <v>-12.8025</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.4804</v>
+        <v>-12.60570000000001</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-20.59600000000001</v>
+        <v>-20.62040000000001</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-21.77579999999999</v>
+        <v>-21.72519999999999</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1947,7 +1947,7 @@
         <v>4.69</v>
       </c>
       <c r="C89" t="n">
-        <v>-10.532</v>
+        <v>-10.56720000000001</v>
       </c>
       <c r="D89" t="n">
         <v>-7</v>
@@ -1964,7 +1964,7 @@
         <v>7.49</v>
       </c>
       <c r="C90" t="n">
-        <v>-12.87269999999999</v>
+        <v>-12.4145</v>
       </c>
       <c r="D90" t="n">
         <v>-8.890000000000001</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.56660000000001</v>
+        <v>-21.45090000000002</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1998,7 +1998,7 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-10.66629999999999</v>
+        <v>-10.89599999999999</v>
       </c>
       <c r="D92" t="n">
         <v>-5.32</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.05689999999998</v>
+        <v>-21.12119999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-21.9462</v>
+        <v>-21.80419999999999</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
